--- a/persist/test.xlsx
+++ b/persist/test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t xml:space="preserve">dog</t>
   </si>
@@ -34,46 +34,73 @@
     <t xml:space="preserve">sad</t>
   </si>
   <si>
-    <t xml:space="preserve">Kamran</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dsasd</t>
+    <t xml:space="preserve">abc1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rabbit9</t>
   </si>
   <si>
     <t xml:space="preserve">asds</t>
   </si>
   <si>
+    <t xml:space="preserve">abc2</t>
+  </si>
+  <si>
     <t xml:space="preserve">sada</t>
   </si>
   <si>
     <t xml:space="preserve">dasdas</t>
   </si>
   <si>
+    <t xml:space="preserve">abc3</t>
+  </si>
+  <si>
     <t xml:space="preserve">da</t>
   </si>
   <si>
     <t xml:space="preserve">dasdasasd</t>
   </si>
   <si>
+    <t xml:space="preserve">abc4</t>
+  </si>
+  <si>
     <t xml:space="preserve">dsad</t>
   </si>
   <si>
     <t xml:space="preserve">asdas</t>
   </si>
   <si>
+    <t xml:space="preserve">abc5</t>
+  </si>
+  <si>
     <t xml:space="preserve">asd</t>
   </si>
   <si>
+    <t xml:space="preserve">abc6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abc7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abc8</t>
+  </si>
+  <si>
     <t xml:space="preserve">dsa</t>
   </si>
   <si>
+    <t xml:space="preserve">abc9</t>
+  </si>
+  <si>
     <t xml:space="preserve">ad</t>
   </si>
   <si>
-    <t xml:space="preserve">v</t>
+    <t xml:space="preserve">abc10</t>
   </si>
   <si>
     <t xml:space="preserve">sadsad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abc11</t>
   </si>
   <si>
     <t xml:space="preserve">sdasd</t>
@@ -183,10 +210,10 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -215,107 +242,107 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
